--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAEA17B-70B0-4B63-9D65-B07F9D49584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847E3EB-71B6-4C5F-B695-110996489C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="1" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production and Capacities" sheetId="62" r:id="rId1"/>
@@ -33,20 +33,22 @@
     <sheet name="Processes_BASE" sheetId="31" r:id="rId18"/>
     <sheet name="ANSv2-692-ProcData" sheetId="25" state="veryHidden" r:id="rId19"/>
     <sheet name="ProcData_ALM" sheetId="56" r:id="rId20"/>
-    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId21"/>
-    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId22"/>
-    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId23"/>
-    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId24"/>
-    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId25"/>
-    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId26"/>
-    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId27"/>
-    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId28"/>
+    <sheet name="ProcData_ALM - PAMS" sheetId="67" r:id="rId21"/>
+    <sheet name="ANSv2-692-ConstrData" sheetId="24" state="veryHidden" r:id="rId22"/>
+    <sheet name="ANSv2-692-ITEMS" sheetId="10" state="veryHidden" r:id="rId23"/>
+    <sheet name="ANSv2-692-TS DATA" sheetId="12" state="veryHidden" r:id="rId24"/>
+    <sheet name="ANSv2-692-TID DATA" sheetId="13" state="veryHidden" r:id="rId25"/>
+    <sheet name="ANSv2-692-TS&amp;TID DATA" sheetId="14" state="veryHidden" r:id="rId26"/>
+    <sheet name="ANSv2-692-TS TRADE" sheetId="15" state="veryHidden" r:id="rId27"/>
+    <sheet name="ANSv2-692-TID TRADE" sheetId="16" state="veryHidden" r:id="rId28"/>
+    <sheet name="ANSv2-692-TS&amp;TID TRADE" sheetId="17" state="veryHidden" r:id="rId29"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="8" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="20" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -166,6 +168,30 @@
     <author>Ken Noble</author>
   </authors>
   <commentList>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{A21E3422-1CB1-4388-8557-8C1348C359E7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>If Process Activity is: Output-based, leave blank.
+Input-based, insert I.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ken Noble</author>
+  </authors>
+  <commentList>
     <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
@@ -234,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="378">
   <si>
     <t>Comment</t>
   </si>
@@ -1355,6 +1381,33 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>PAMS</t>
+  </si>
+  <si>
+    <t>Is on?</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>need a description</t>
+  </si>
+  <si>
+    <t>by 2030</t>
+  </si>
+  <si>
+    <t>on elec processes</t>
+  </si>
+  <si>
+    <t>selected</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2278,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2577,6 +2630,8 @@
     <xf numFmtId="3" fontId="54" fillId="17" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="59" fillId="18" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="58" fillId="19" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -2792,7 +2847,35 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX115.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX116.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX117.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX118.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX119.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX120.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX121.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -3196,7 +3279,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D61C2A-BE84-453B-9F7B-5A7571FABE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3301,7 +3384,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -3538,7 +3621,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:colOff>1933575</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3717,7 +3800,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1304925</xdr:colOff>
+          <xdr:colOff>1314450</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -3775,7 +3858,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4128,7 +4211,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>847725</xdr:colOff>
+          <xdr:colOff>857250</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4533,6 +4616,417 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>857250</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199681" name="cmdTechNameAndDesc" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199681"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000010C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199682" name="cmdCommIN" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199682"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000020C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199683" name="cmdCommOUT" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199683"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000030C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>428625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199684" name="cmdAddParameter" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199684"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000040C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199685" name="cmdAddParamQualifier1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199685"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000050C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199686" name="cmdCheckTechDataSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199686"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000060C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="199687" name="cmdAddParamQualifier2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s199687"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-0000070C0300}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4551,7 +5045,7 @@
                   <a14:compatExt spid="_x0000_s102401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000001900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000001900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4609,7 +5103,7 @@
                   <a14:compatExt spid="_x0000_s102402"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4667,7 +5161,7 @@
                   <a14:compatExt spid="_x0000_s102403"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4725,7 +5219,7 @@
                   <a14:compatExt spid="_x0000_s102404"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000004900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000004900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4773,7 +5267,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4783,7 +5277,7 @@
                   <a14:compatExt spid="_x0000_s102405"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000005900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000005900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4829,7 +5323,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -4841,7 +5335,7 @@
                   <a14:compatExt spid="_x0000_s102407"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000007900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000007900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4887,7 +5381,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -4899,7 +5393,7 @@
                   <a14:compatExt spid="_x0000_s102408"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000008900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000008900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4957,7 +5451,7 @@
                   <a14:compatExt spid="_x0000_s102409"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000009900100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000009900100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4995,7 +5489,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5020,7 +5514,7 @@
                   <a14:compatExt spid="_x0000_s55297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000001D80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001D80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5078,7 +5572,7 @@
                   <a14:compatExt spid="_x0000_s55298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002D80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002D80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5136,7 +5630,7 @@
                   <a14:compatExt spid="_x0000_s55299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003D80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003D80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5182,7 +5676,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -5194,7 +5688,7 @@
                   <a14:compatExt spid="_x0000_s55300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000004D80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004D80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5232,7 +5726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5257,7 +5751,7 @@
                   <a14:compatExt spid="_x0000_s57345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000001E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5315,7 +5809,7 @@
                   <a14:compatExt spid="_x0000_s57346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5373,7 +5867,7 @@
                   <a14:compatExt spid="_x0000_s57347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5431,7 +5925,7 @@
                   <a14:compatExt spid="_x0000_s57348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5489,7 +5983,7 @@
                   <a14:compatExt spid="_x0000_s57349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000005E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5547,7 +6041,7 @@
                   <a14:compatExt spid="_x0000_s57350"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000006E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5605,7 +6099,7 @@
                   <a14:compatExt spid="_x0000_s57351"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000007E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000007E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5663,7 +6157,7 @@
                   <a14:compatExt spid="_x0000_s57352"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000008E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000008E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5721,7 +6215,7 @@
                   <a14:compatExt spid="_x0000_s57353"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000009E00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000009E00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5769,7 +6263,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5779,7 +6273,7 @@
                   <a14:compatExt spid="_x0000_s57354"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000AE00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-00000AE00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5817,7 +6311,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5842,7 +6336,7 @@
                   <a14:compatExt spid="_x0000_s58369"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000001E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000001E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5900,7 +6394,7 @@
                   <a14:compatExt spid="_x0000_s58370"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5958,7 +6452,7 @@
                   <a14:compatExt spid="_x0000_s58371"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6016,7 +6510,7 @@
                   <a14:compatExt spid="_x0000_s58372"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6074,7 +6568,7 @@
                   <a14:compatExt spid="_x0000_s58373"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6132,7 +6626,7 @@
                   <a14:compatExt spid="_x0000_s58374"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000006E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6190,7 +6684,7 @@
                   <a14:compatExt spid="_x0000_s58375"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000007E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000007E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6248,7 +6742,7 @@
                   <a14:compatExt spid="_x0000_s58376"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000008E40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000008E40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6286,7 +6780,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -6311,7 +6805,7 @@
                   <a14:compatExt spid="_x0000_s59393"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000001E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000001E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6369,7 +6863,7 @@
                   <a14:compatExt spid="_x0000_s59394"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6427,7 +6921,7 @@
                   <a14:compatExt spid="_x0000_s59395"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000003E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6485,7 +6979,7 @@
                   <a14:compatExt spid="_x0000_s59396"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000004E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6543,7 +7037,7 @@
                   <a14:compatExt spid="_x0000_s59397"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000005E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6601,7 +7095,7 @@
                   <a14:compatExt spid="_x0000_s59398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000006E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6659,7 +7153,7 @@
                   <a14:compatExt spid="_x0000_s59399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000007E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000007E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6717,7 +7211,7 @@
                   <a14:compatExt spid="_x0000_s59400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000008E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000008E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6775,7 +7269,7 @@
                   <a14:compatExt spid="_x0000_s59401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000009E80000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000009E80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6821,9 +7315,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6833,592 +7327,7 @@
                   <a14:compatExt spid="_x0000_s59402"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-00000AE80000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60418" name="cmdSpecifyParameter" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60418"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60419" name="cmdSpecifyArg1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60419"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60420" name="cmdSpecifyArg2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60420"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60421" name="cmdSpecifyArg3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60421"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60422" name="cmdSpecifyArg4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60422"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60423" name="cmdSpecifyArg5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60423"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000007EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60424" name="cmdSpecifyArg6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60424"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000008EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60425" name="cmdSpecifyIEOptcode" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60425"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000009EC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60426" name="cmdCheckTSTradeSheet" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60426"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000AEC0000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60427" name="cmdPopulateDataYears" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s60427"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000BEC0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000AE80000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7476,7 +7385,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEACD7A-81BB-4FEC-86B6-62DCC4827B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7537,7 +7446,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70A8D8B-9DDA-4409-828B-4CF9487EAD0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7589,6 +7498,591 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60418" name="cmdSpecifyParameter" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60418"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60419" name="cmdSpecifyArg1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60419"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000003EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60420" name="cmdSpecifyArg2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60420"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000004EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60421" name="cmdSpecifyArg3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60421"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000005EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60422" name="cmdSpecifyArg4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60422"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000006EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60423" name="cmdSpecifyArg5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60423"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000007EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60424" name="cmdSpecifyArg6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60424"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000008EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60425" name="cmdSpecifyIEOptcode" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60425"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000009EC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60426" name="cmdCheckTSTradeSheet" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60426"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-00000AEC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60427" name="cmdPopulateDataYears" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s60427"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-00000BEC0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
@@ -7608,7 +8102,7 @@
                   <a14:compatExt spid="_x0000_s61442"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000002F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7666,7 +8160,7 @@
                   <a14:compatExt spid="_x0000_s61443"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000003F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000003F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7724,7 +8218,7 @@
                   <a14:compatExt spid="_x0000_s61444"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000004F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000004F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7782,7 +8276,7 @@
                   <a14:compatExt spid="_x0000_s61445"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000005F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000005F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7840,7 +8334,7 @@
                   <a14:compatExt spid="_x0000_s61446"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000006F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000006F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7898,7 +8392,7 @@
                   <a14:compatExt spid="_x0000_s61447"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000007F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000007F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7956,7 +8450,7 @@
                   <a14:compatExt spid="_x0000_s61448"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000008F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000008F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8014,7 +8508,7 @@
                   <a14:compatExt spid="_x0000_s61449"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000009F00000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000009F00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8052,7 +8546,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -8077,7 +8571,7 @@
                   <a14:compatExt spid="_x0000_s62466"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000002F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8135,7 +8629,7 @@
                   <a14:compatExt spid="_x0000_s62467"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000003F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000003F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8193,7 +8687,7 @@
                   <a14:compatExt spid="_x0000_s62468"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000004F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000004F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8251,7 +8745,7 @@
                   <a14:compatExt spid="_x0000_s62469"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000005F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000005F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8309,7 +8803,7 @@
                   <a14:compatExt spid="_x0000_s62470"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000006F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000006F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8367,7 +8861,7 @@
                   <a14:compatExt spid="_x0000_s62471"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000007F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000007F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8425,7 +8919,7 @@
                   <a14:compatExt spid="_x0000_s62472"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000008F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000008F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8483,7 +8977,7 @@
                   <a14:compatExt spid="_x0000_s62473"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-000009F40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000009F40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8529,7 +9023,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -8541,7 +9035,7 @@
                   <a14:compatExt spid="_x0000_s62474"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-00000AF40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000AF40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8589,7 +9083,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8599,7 +9093,7 @@
                   <a14:compatExt spid="_x0000_s62475"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1B00-00000BF40000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000BF40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8650,9 +9144,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8708,7 +9202,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -8766,7 +9260,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -8882,7 +9376,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9003,7 +9497,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -9066,7 +9560,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:colOff>1933575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9245,7 +9739,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:colOff>1933575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9424,7 +9918,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1924050</xdr:colOff>
+          <xdr:colOff>1933575</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9719,9 +10213,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9840,7 +10334,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -9958,7 +10452,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10464,7 +10958,7 @@
   <dimension ref="A3:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10909,7 +11403,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L29" s="98"/>
       <c r="O29" s="160" t="s">
         <v>226</v>
@@ -11105,7 +11599,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
@@ -11189,7 +11683,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:colOff>1933575</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -11515,7 +12009,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:colOff>1933575</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -11661,7 +12155,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:colOff>1933575</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11810,9 +12304,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11894,7 +12388,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11942,7 +12436,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -12219,7 +12713,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -12709,7 +13203,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:colOff>1933575</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12815,7 +13309,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:colOff>1314450</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12840,7 +13334,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -12985,8 +13479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9FD96-001A-4573-AA7D-DCB9D670F099}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13586,11 +14080,11 @@
   </sheetPr>
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="7" topLeftCell="W8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomRight" activeCell="X14" sqref="X14:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13904,6 +14398,15 @@
       </c>
       <c r="AA7" s="61" t="s">
         <v>44</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>2012</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>2012</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>44</v>
@@ -14296,7 +14799,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14463,6 +14966,425 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB7D0FB-C02E-49F9-B426-0516E4289989}">
+  <sheetPr codeName="Sheet31">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="str">
+        <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
+        <v/>
+      </c>
+      <c r="B1" s="19" t="str">
+        <f>Commodities_BASE!B1</f>
+        <v>REGION1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,255)</f>
+        <v>ProcData_ALM - PAMS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="H3" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="H5" s="12" t="str">
+        <f>E9</f>
+        <v>INDGAS</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f>E10</f>
+        <v>INDOLP</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>E11</f>
+        <v>INFELC</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f>J5</f>
+        <v>INFELC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2020</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="str">
+        <f>Processes_BASE!A8</f>
+        <v>* Conversion technologies</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="127"/>
+    </row>
+    <row r="9" spans="1:11" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="50" t="str">
+        <f>Processes_BASE!B10</f>
+        <v>IALPOT</v>
+      </c>
+      <c r="C9" s="50" t="str">
+        <f>Processes_BASE!C10</f>
+        <v>Aluminium smelters - potlines</v>
+      </c>
+      <c r="D9" s="50" t="str">
+        <f>Processes_BASE!D10</f>
+        <v>PJ,mt/a</v>
+      </c>
+      <c r="E9" s="128" t="str">
+        <f>RES!D2</f>
+        <v>INDGAS</v>
+      </c>
+      <c r="F9" s="128"/>
+      <c r="H9" s="123">
+        <f>ProcData_ALM!AB9</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="E10" s="128" t="str">
+        <f>RES!E2</f>
+        <v>INDOLP</v>
+      </c>
+      <c r="F10" s="128"/>
+      <c r="I10" s="123">
+        <f>ProcData_ALM!AC10</f>
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="E11" s="127" t="str">
+        <f>RES!F2</f>
+        <v>INFELC</v>
+      </c>
+      <c r="J11" s="123">
+        <f>ProcData_ALM!AD11</f>
+        <v>46.37</v>
+      </c>
+      <c r="K11" s="45">
+        <f>J11*(1-Index!M14)</f>
+        <v>45.210749999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="127" t="str">
+        <f>RES!O2</f>
+        <v>IALM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="127"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="128"/>
+      <c r="F14" s="127"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="128"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="128"/>
+      <c r="F16" s="62"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="128"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199681" r:id="rId4" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199681" r:id="rId4" name="cmdTechNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199682" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199682" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199683" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199683" r:id="rId8" name="cmdCommOUT"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199684" r:id="rId10" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>428625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199684" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199685" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199685" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199686" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199686" r:id="rId14" name="cmdCheckTechDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="199687" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="199687" r:id="rId16" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:X9"/>
@@ -14926,7 +15848,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>819150</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14949,7 +15871,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
@@ -14974,7 +15896,7 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
@@ -15015,7 +15937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G15"/>
@@ -15246,7 +16168,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
@@ -15262,7 +16184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:R7"/>
@@ -15345,7 +16267,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>819150</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15584,7 +16506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:I7"/>
@@ -15846,7 +16768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R7"/>
@@ -15928,9 +16850,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16169,7 +17091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:S9"/>
@@ -16262,10 +17184,10 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16487,8 +17409,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16504,7 +17426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:J9"/>
@@ -16779,7 +17701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:S9"/>
@@ -16874,7 +17796,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -17097,7 +18019,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
@@ -18567,9 +19489,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18592,9 +19514,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18617,9 +19539,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18642,9 +19564,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18667,9 +19589,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18688,10 +19610,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B3:E27"/>
+  <dimension ref="B3:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18701,7 +19623,7 @@
     <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="97" t="s">
         <v>157</v>
       </c>
@@ -18711,8 +19633,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
         <v>158</v>
       </c>
@@ -18723,7 +19645,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
         <v>159</v>
       </c>
@@ -18734,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D7" t="str">
         <f ca="1">Commodities_BASE!A2</f>
         <v>Commodities_BASE</v>
@@ -18743,8 +19665,14 @@
         <f t="shared" ref="E7:E11" si="0">$E$6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I7" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D8" t="str">
         <f ca="1">CommData_BASE!A2</f>
         <v>CommData_BASE</v>
@@ -18754,7 +19682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D9" t="str">
         <f ca="1">Processes_BASE!A2</f>
         <v>Processes_BASE</v>
@@ -18763,18 +19691,30 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="I9" s="94" t="s">
+        <v>370</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f ca="1">'ProcData_ALM - PAMS'!A2</f>
+        <v>ProcData_ALM - PAMS</v>
       </c>
       <c r="E10" s="125">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+        <f>IF(J9=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="J10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D11" t="str">
         <f ca="1">ProcData_ALM!A2</f>
         <v>ProcData_ALM</v>
@@ -18783,20 +19723,54 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E12" s="125"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I12" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="J12" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="M12" s="225">
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="94" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E13" s="125"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I13" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="M13" s="226">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N13" s="94" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E14" s="125"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f>INDEX(M12:M13,MATCH(J10,I12:I13,0))</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N14" s="94" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E15" s="125"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E16" s="125"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
@@ -18833,6 +19807,14 @@
       <c r="E27" s="125"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{649E72FB-A0B3-4F01-B5FA-D6C888ACD94C}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10" xr:uid="{158ECA61-51EF-4EA1-B317-22BEED597959}">
+      <formula1>$I$12:$I$13</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847E3EB-71B6-4C5F-B695-110996489C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B03BC-7934-40F2-A2F3-AD1010ACDB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2631,7 +2631,7 @@
     <xf numFmtId="3" fontId="59" fillId="18" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="58" fillId="19" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bad" xfId="21" builtinId="27"/>
@@ -3384,7 +3384,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -3621,7 +3621,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3800,7 +3800,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1314450</xdr:colOff>
+          <xdr:colOff>1304925</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4211,7 +4211,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -4622,7 +4622,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>857250</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
@@ -5676,7 +5676,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -6263,7 +6263,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7317,7 +7317,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>847725</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8029,7 +8029,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9083,7 +9083,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9144,9 +9144,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9202,9 +9202,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9260,9 +9260,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9318,9 +9318,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9376,9 +9376,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9497,7 +9497,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -9560,7 +9560,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9739,7 +9739,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -9918,7 +9918,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1933575</xdr:colOff>
+          <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10334,7 +10334,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -11403,7 +11403,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="L29" s="98"/>
       <c r="O29" s="160" t="s">
         <v>226</v>
@@ -11599,7 +11599,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
@@ -11683,7 +11683,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -12009,7 +12009,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -12155,7 +12155,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12304,9 +12304,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12388,7 +12388,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12436,7 +12436,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -12713,7 +12713,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -13203,7 +13203,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1933575</xdr:colOff>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -13309,7 +13309,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1314450</xdr:colOff>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -13334,7 +13334,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14799,7 +14799,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -14976,7 +14976,7 @@
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15147,7 +15147,7 @@
       </c>
       <c r="K11" s="45">
         <f>J11*(1-Index!M14)</f>
-        <v>45.210749999999997</v>
+        <v>44.051499999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15218,7 +15218,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -15848,7 +15848,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>819150</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15871,7 +15871,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
@@ -15896,7 +15896,7 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>238125</xdr:rowOff>
               </to>
@@ -16168,7 +16168,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
@@ -16267,7 +16267,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>819150</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16850,9 +16850,9 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -17184,10 +17184,10 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -17409,8 +17409,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -17796,7 +17796,7 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -18019,7 +18019,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
@@ -19489,9 +19489,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -19514,9 +19514,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -19539,9 +19539,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -19564,9 +19564,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -19589,9 +19589,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -19613,7 +19613,7 @@
   <dimension ref="B3:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19735,8 +19735,8 @@
       <c r="J12" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="M12" s="225">
-        <v>0.05</v>
+      <c r="M12" s="226">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N12" s="94" t="s">
         <v>376</v>
@@ -19750,8 +19750,8 @@
       <c r="J13" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="M13" s="226">
-        <v>2.5000000000000001E-2</v>
+      <c r="M13" s="225">
+        <v>0.05</v>
       </c>
       <c r="N13" s="94" t="s">
         <v>376</v>
@@ -19761,7 +19761,7 @@
       <c r="E14" s="125"/>
       <c r="M14">
         <f>INDEX(M12:M13,MATCH(J10,I12:I13,0))</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N14" s="94" t="s">
         <v>377</v>

--- a/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
+++ b/SATIM/DataSpreadsheets/TCH_IND/TCH_IND_ALM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\TCH_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B03BC-7934-40F2-A2F3-AD1010ACDB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DECCE9-626E-479B-86C4-2306EA45A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="8" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -257,6 +258,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10607,6 +10630,354 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Index"/>
+      <sheetName val="ChangeLog"/>
+      <sheetName val="NameConv"/>
+      <sheetName val="Industry desription"/>
+      <sheetName val="SIC codes"/>
+      <sheetName val="REGIONS"/>
+      <sheetName val="Detailed GDP STATSSA"/>
+      <sheetName val="GDP STATSSA"/>
+      <sheetName val="Output compiled"/>
+      <sheetName val="IND GDP statssa 2"/>
+      <sheetName val="Ind output Mark"/>
+      <sheetName val="Ind mining output STATSSA"/>
+      <sheetName val="Ind Man output STATSSA"/>
+      <sheetName val="supply and use tables"/>
+      <sheetName val="DOE 2006 native units"/>
+      <sheetName val="2006-2009"/>
+      <sheetName val="Industry VA"/>
+      <sheetName val="Sources"/>
+      <sheetName val="1992-2006 industry"/>
+      <sheetName val="DoE2013 Industry EB"/>
+      <sheetName val="digest "/>
+      <sheetName val="DMR1"/>
+      <sheetName val="mining general info"/>
+      <sheetName val="I&amp;S - prod"/>
+      <sheetName val="I&amp;S - prod 2"/>
+      <sheetName val="I&amp;S - prod 3"/>
+      <sheetName val="End uses"/>
+      <sheetName val="EIA end use"/>
+      <sheetName val="Aluminium"/>
+      <sheetName val="Eskom sales data"/>
+      <sheetName val="Eskom Annual YB"/>
+      <sheetName val="eskom yb sector sales"/>
+      <sheetName val="NERSA Elec"/>
+      <sheetName val="REPORT TABLES"/>
+      <sheetName val="Tech Efficiencies"/>
+      <sheetName val="Coal prices"/>
+      <sheetName val="Electricity prices"/>
+      <sheetName val="ELEC CALCS ADRIAN IGNORE"/>
+      <sheetName val="FA-Items"/>
+      <sheetName val="FA-TSData"/>
+      <sheetName val="FA-TIDData"/>
+      <sheetName val="FerroAlloys"/>
+      <sheetName val="Aluminium - Items"/>
+      <sheetName val="Aluminium - TIDData"/>
+      <sheetName val="Aluminium - TSData"/>
+      <sheetName val="Aluminium Data"/>
+      <sheetName val="NMM-Items"/>
+      <sheetName val="NMM-TSData"/>
+      <sheetName val="NMM-TIDData"/>
+      <sheetName val="NMM data"/>
+      <sheetName val="Coking coal"/>
+      <sheetName val="COGEN"/>
+      <sheetName val="Payback from EIA"/>
+      <sheetName val="SasolGasSales"/>
+      <sheetName val="2012 SATIM EB"/>
+      <sheetName val="2017 SATIM EB"/>
+      <sheetName val="IND old - 2006BY"/>
+      <sheetName val="IND"/>
+      <sheetName val="IND2017"/>
+      <sheetName val="PAMS central control panel"/>
+      <sheetName val="ITEMS_Tech"/>
+      <sheetName val="ITEMS_Comm"/>
+      <sheetName val="TS DTech"/>
+      <sheetName val="TS DMARK"/>
+      <sheetName val="TID DTech"/>
+      <sheetName val="TS BYDem"/>
+      <sheetName val="TS COMFRN"/>
+      <sheetName val="TS COMFR"/>
+      <sheetName val="TS COMFRN_10"/>
+      <sheetName val="TS COMFR_10"/>
+      <sheetName val="TS ETech"/>
+      <sheetName val="TID ETech"/>
+      <sheetName val="TS GTech"/>
+      <sheetName val="TID GTech"/>
+      <sheetName val="TS FTech"/>
+      <sheetName val="TID FTech"/>
+      <sheetName val="TS Emiss"/>
+      <sheetName val="TID Emiss"/>
+      <sheetName val="AFA"/>
+      <sheetName val="Sc1 Standards"/>
+      <sheetName val="Sc2 Audits"/>
+      <sheetName val="Sc3 En Man"/>
+      <sheetName val="Sc4 Accreditation"/>
+      <sheetName val="Sc5 Education"/>
+      <sheetName val="Sc6 NEEA"/>
+      <sheetName val="Sc7 Finance"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="pamsindex" refersTo="='PAMS central control panel'!$C$2"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Agriculture, forestry and fishing</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>1994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>FMP20000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="C2">
+            <v>813472</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
+        <row r="2">
+          <cell r="C2">
+            <v>1992</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="C2">
+            <v>1988</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
+        <row r="2">
+          <cell r="C2">
+            <v>1996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IFAEAF_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="39">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>IALPOT_CG-I</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="43">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="44">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>UC-INM-KLD</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50">
+        <row r="2">
+          <cell r="C2">
+            <v>2001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>High Temperature Heat</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="53">
+        <row r="2">
+          <cell r="C2">
+            <v>2006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59">
+        <row r="2">
+          <cell r="C2" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="80">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="81">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="82">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="83">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="84">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="85">
+        <row r="2">
+          <cell r="C2">
+            <v>2012</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19613,7 +19984,7 @@
   <dimension ref="B3:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:G29"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19694,7 +20065,8 @@
       <c r="I9" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" t="b" cm="1">
+        <f t="array" ref="J9">[2]!pamsindex</f>
         <v>0</v>
       </c>
     </row>
@@ -19807,10 +20179,7 @@
       <c r="E27" s="125"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9" xr:uid="{649E72FB-A0B3-4F01-B5FA-D6C888ACD94C}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10" xr:uid="{158ECA61-51EF-4EA1-B317-22BEED597959}">
       <formula1>$I$12:$I$13</formula1>
     </dataValidation>
